--- a/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
+++ b/InputData/elec/FoTCAMRBtPF/Frac of TCAMRB that Provides Flexibility.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us WIP\InputData\elec\FoTCAMRBtPF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\FoTCAMRBtPF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -245,9 +245,6 @@
     <t>The vast majority of U.S. electricity imports are from Canada.  Therefore, we</t>
   </si>
   <si>
-    <t xml:space="preserve">use the Canadian generation mix for our estimate.  We </t>
-  </si>
-  <si>
     <t>Flexibility Share</t>
   </si>
   <si>
@@ -281,7 +278,10 @@
     <t>Fraction</t>
   </si>
   <si>
-    <t xml:space="preserve">Transmission Capacity That Provides Flexibility </t>
+    <t xml:space="preserve">use the Canadian generation mix for our estimate. </t>
+  </si>
+  <si>
+    <t>Transmission Capacity That Provides Flexibility (dimensionless)</t>
   </si>
 </sst>
 </file>
@@ -660,7 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -674,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -684,17 +686,17 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -734,7 +736,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -15102,7 +15104,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -15171,27 +15173,27 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -15206,7 +15208,9 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -15217,7 +15221,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B2" s="8">
         <f>SUMPRODUCT('Canada Generation'!N9:N16,'Canada Flexibility Shares'!B2:B9)/SUM('Canada Generation'!N9:N16)</f>
@@ -15482,13 +15486,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2B58F72-E0FC-4C6B-BE18-13742F09E838}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7DD2B69A-DCC9-4011-8935-BC0F7E4662E6}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{525C4A78-4CEA-4308-A87E-160211472778}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4CC7F25-1CC3-4D66-AD85-217B39EE7F44}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7520D2E-C223-4527-8530-BA0FC38C78C8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D2502C5-EA8C-4BC3-BF57-D3DAEB32C2DE}"/>
 </file>